--- a/Wales.xlsx
+++ b/Wales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lauh/Documents/GitHub/covid-cases-by-ua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6E9E2-B1B6-9946-B542-E672A3B0A1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762D8B9-0680-864B-94FE-D966DCA3B507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23220" yWindow="4320" windowWidth="27240" windowHeight="16440" xr2:uid="{4C2B68A3-3FE6-A549-BEB1-A79AC28E101D}"/>
   </bookViews>
@@ -404,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198583B0-3CC9-B245-BDDC-CDEACA31ECC9}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +422,14 @@
       <c r="C1" s="1">
         <v>43910</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>43913</v>
+      </c>
+      <c r="E1" s="1">
+        <v>43914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -433,8 +439,14 @@
       <c r="C2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -444,8 +456,14 @@
       <c r="C3">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>220</v>
+      </c>
+      <c r="E3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -455,8 +473,14 @@
       <c r="C4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -466,8 +490,14 @@
       <c r="C5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -477,8 +507,14 @@
       <c r="C6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -488,8 +524,14 @@
       <c r="C7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -499,8 +541,14 @@
       <c r="C8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -509,6 +557,12 @@
       </c>
       <c r="C9">
         <v>191</v>
+      </c>
+      <c r="D9">
+        <v>418</v>
+      </c>
+      <c r="E9">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
